--- a/PCB/PickAndPlace_90_LPC.xlsx
+++ b/PCB/PickAndPlace_90_LPC.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-12-21" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2025-01-26" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="105">
   <si>
     <t>Designator</t>
   </si>
@@ -64,13 +64,13 @@
     <t>SOD-323_L1.8-W1.3-LS2.5-RD</t>
   </si>
   <si>
-    <t>55.499mm</t>
-  </si>
-  <si>
-    <t>-47.498mm</t>
-  </si>
-  <si>
-    <t>56.672mm</t>
+    <t>66.649mm</t>
+  </si>
+  <si>
+    <t>-48.032mm</t>
+  </si>
+  <si>
+    <t>-46.86mm</t>
   </si>
   <si>
     <t>B</t>
@@ -121,13 +121,13 @@
     <t>R0805</t>
   </si>
   <si>
-    <t>60.452mm</t>
-  </si>
-  <si>
-    <t>-47.117mm</t>
-  </si>
-  <si>
-    <t>61.452mm</t>
+    <t>59.41mm</t>
+  </si>
+  <si>
+    <t>-34.57mm</t>
+  </si>
+  <si>
+    <t>-33.57mm</t>
   </si>
   <si>
     <t>100Ω</t>
@@ -136,37 +136,28 @@
     <t>R2</t>
   </si>
   <si>
-    <t>60.257mm</t>
-  </si>
-  <si>
-    <t>-36.139mm</t>
-  </si>
-  <si>
-    <t>59.257mm</t>
+    <t>60.045mm</t>
+  </si>
+  <si>
+    <t>-49.032mm</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>65.151mm</t>
-  </si>
-  <si>
-    <t>-36.195mm</t>
-  </si>
-  <si>
-    <t>64.151mm</t>
+    <t>63.474mm</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>66.167mm</t>
-  </si>
-  <si>
-    <t>-47.244mm</t>
-  </si>
-  <si>
-    <t>67.167mm</t>
+    <t>63.982mm</t>
+  </si>
+  <si>
+    <t>-34.443mm</t>
+  </si>
+  <si>
+    <t>-33.443mm</t>
   </si>
   <si>
     <t>RGB</t>
@@ -244,40 +235,97 @@
     <t>HDR-TH_16P-P2.54-V-F-R2-C8-S2.54-LS6.7</t>
   </si>
   <si>
+    <t>61.95mm</t>
+  </si>
+  <si>
+    <t>-40.285mm</t>
+  </si>
+  <si>
+    <t>70.84mm</t>
+  </si>
+  <si>
+    <t>-43.065mm</t>
+  </si>
+  <si>
+    <t>SD_EXP</t>
+  </si>
+  <si>
+    <t>78.74mm</t>
+  </si>
+  <si>
+    <t>-40.894mm</t>
+  </si>
+  <si>
+    <t>76.802mm</t>
+  </si>
+  <si>
+    <t>-38.394mm</t>
+  </si>
+  <si>
+    <t>77.512mm</t>
+  </si>
+  <si>
+    <t>-48.811mm</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>BSMD0603-075-6V</t>
+  </si>
+  <si>
+    <t>F0603</t>
+  </si>
+  <si>
     <t>62.992mm</t>
   </si>
   <si>
-    <t>-41.148mm</t>
-  </si>
-  <si>
-    <t>71.882mm</t>
-  </si>
-  <si>
-    <t>-43.928mm</t>
-  </si>
-  <si>
-    <t>SD_EXP</t>
-  </si>
-  <si>
-    <t>78.74mm</t>
-  </si>
-  <si>
-    <t>-40.894mm</t>
-  </si>
-  <si>
-    <t>76.802mm</t>
-  </si>
-  <si>
-    <t>-38.394mm</t>
-  </si>
-  <si>
-    <t>RGB1</t>
-  </si>
-  <si>
-    <t>77.512mm</t>
-  </si>
-  <si>
-    <t>-48.811mm</t>
+    <t>-53.086mm</t>
+  </si>
+  <si>
+    <t>63.745mm</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>WNM2020-3/TR-VB</t>
+  </si>
+  <si>
+    <t>SOT-23-3_L2.9-W1.3-P0.95-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>56.134mm</t>
+  </si>
+  <si>
+    <t>-52.07mm</t>
+  </si>
+  <si>
+    <t>57.084mm</t>
+  </si>
+  <si>
+    <t>-53.07mm</t>
+  </si>
+  <si>
+    <t>VSEL</t>
+  </si>
+  <si>
+    <t>SK-3293S</t>
+  </si>
+  <si>
+    <t>SW-SMD_SK-3293S</t>
+  </si>
+  <si>
+    <t>79.629mm</t>
+  </si>
+  <si>
+    <t>-49.403mm</t>
+  </si>
+  <si>
+    <t>78.152mm</t>
+  </si>
+  <si>
+    <t>-48.403mm</t>
   </si>
 </sst>
 </file>
@@ -654,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -730,10 +778,10 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -742,7 +790,7 @@
         <v>20</v>
       </c>
       <c r="L2">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
@@ -862,10 +910,10 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -874,7 +922,7 @@
         <v>20</v>
       </c>
       <c r="L5">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
@@ -897,16 +945,16 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
         <v>42</v>
@@ -918,7 +966,7 @@
         <v>20</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
         <v>21</v>
@@ -929,7 +977,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -938,22 +986,22 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -962,7 +1010,7 @@
         <v>20</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
@@ -973,7 +1021,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -982,22 +1030,22 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1006,7 +1054,7 @@
         <v>20</v>
       </c>
       <c r="L8">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M8" t="s">
         <v>21</v>
@@ -1017,7 +1065,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1026,19 +1074,19 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -1061,37 +1109,37 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
       </c>
       <c r="J10">
         <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1100,42 +1148,42 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1144,42 +1192,42 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1188,42 +1236,42 @@
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1232,36 +1280,36 @@
         <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
-      <c r="D14" t="s">
+      <c r="I14" t="s">
         <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>80</v>
       </c>
       <c r="J14">
         <v>16</v>
@@ -1276,12 +1324,12 @@
         <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1290,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
         <v>82</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" t="s">
-        <v>85</v>
       </c>
       <c r="J15">
         <v>8</v>
@@ -1325,37 +1373,37 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1364,7 +1412,139 @@
         <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>180</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>270</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>270</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
